--- a/Brake Line.xlsx
+++ b/Brake Line.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddhesh\cp\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f97608a360baede8/Documents/GitHub/Mahindra_HackeroX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB2350C7-BF99-43E9-84A2-BFFD5D1A654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{AB2350C7-BF99-43E9-84A2-BFFD5D1A654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45913AD8-2D25-47E3-B5E4-6011633C0342}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2A65188-B07D-435E-AF0F-58F7CA81AE86}"/>
   </bookViews>
@@ -4189,9 +4189,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F49F142-9A16-46F8-950E-960BD29EDC48}">
   <dimension ref="A1:F1578"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A741" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="30.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
